--- a/bd.xlsx
+++ b/bd.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="98">
   <si>
     <t>Exercício: 2019</t>
   </si>
@@ -166,12 +166,78 @@
     <t>Despesas Liquidadas</t>
   </si>
   <si>
+    <t>Prefeitura Municipal de São José do Hortêncio - RS</t>
+  </si>
+  <si>
+    <t>06.182 - Defesa Civil</t>
+  </si>
+  <si>
+    <t>08.241 - Assistência ao Idoso</t>
+  </si>
+  <si>
+    <t>12.362 - Ensino Médio</t>
+  </si>
+  <si>
+    <t>12.122 - Administração Geral</t>
+  </si>
+  <si>
+    <t>20.608 - Promoção da Produção Agropecuária</t>
+  </si>
+  <si>
+    <t>22.661 - Promoção Industrial</t>
+  </si>
+  <si>
+    <t>25 - Energia</t>
+  </si>
+  <si>
     <t>Prefeitura Municipal de Presidente Kubitschek - MG</t>
   </si>
   <si>
     <t>MG</t>
   </si>
   <si>
+    <t>16 - Habitação</t>
+  </si>
+  <si>
+    <t>16.482 - Habitação Urbana</t>
+  </si>
+  <si>
+    <t>17.511 - Saneamento Básico Rural</t>
+  </si>
+  <si>
+    <t>20.122 - Administração Geral</t>
+  </si>
+  <si>
+    <t>24 - Comunicações</t>
+  </si>
+  <si>
+    <t>24.722 - Telecomunicações</t>
+  </si>
+  <si>
+    <t>26 - Transporte</t>
+  </si>
+  <si>
+    <t>26.782 - Transporte Rodoviário</t>
+  </si>
+  <si>
+    <t>27 - Desporto e Lazer</t>
+  </si>
+  <si>
+    <t>27.812 - Desporto Comunitário</t>
+  </si>
+  <si>
+    <t>FU27 - Demais Subfunções</t>
+  </si>
+  <si>
+    <t>28 - Encargos Especiais</t>
+  </si>
+  <si>
+    <t>28.843 - Serviço da Dívida Interna</t>
+  </si>
+  <si>
+    <t>FU28 - Demais Subfunções</t>
+  </si>
+  <si>
     <t>01.122 - Administração Geral</t>
   </si>
   <si>
@@ -202,9 +268,6 @@
     <t>FU10 - Demais Subfunções</t>
   </si>
   <si>
-    <t>12.122 - Administração Geral</t>
-  </si>
-  <si>
     <t>FU12 - Demais Subfunções</t>
   </si>
   <si>
@@ -214,51 +277,6 @@
     <t>15.122 - Administração Geral</t>
   </si>
   <si>
-    <t>16 - Habitação</t>
-  </si>
-  <si>
-    <t>16.482 - Habitação Urbana</t>
-  </si>
-  <si>
-    <t>17.511 - Saneamento Básico Rural</t>
-  </si>
-  <si>
-    <t>20.608 - Promoção da Produção Agropecuária</t>
-  </si>
-  <si>
-    <t>20.122 - Administração Geral</t>
-  </si>
-  <si>
-    <t>24 - Comunicações</t>
-  </si>
-  <si>
-    <t>24.722 - Telecomunicações</t>
-  </si>
-  <si>
-    <t>26 - Transporte</t>
-  </si>
-  <si>
-    <t>26.782 - Transporte Rodoviário</t>
-  </si>
-  <si>
-    <t>27 - Desporto e Lazer</t>
-  </si>
-  <si>
-    <t>27.812 - Desporto Comunitário</t>
-  </si>
-  <si>
-    <t>FU27 - Demais Subfunções</t>
-  </si>
-  <si>
-    <t>28 - Encargos Especiais</t>
-  </si>
-  <si>
-    <t>28.843 - Serviço da Dívida Interna</t>
-  </si>
-  <si>
-    <t>FU28 - Demais Subfunções</t>
-  </si>
-  <si>
     <t>Despesas Pagas</t>
   </si>
   <si>
@@ -266,6 +284,27 @@
   </si>
   <si>
     <t>Inscrição de Restos a Pagar Processados</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Três Cachoeiras - RS</t>
+  </si>
+  <si>
+    <t>12.366 - Educação de Jovens e Adultos</t>
+  </si>
+  <si>
+    <t>14 - Direitos da Cidadania</t>
+  </si>
+  <si>
+    <t>FU14 - Demais Subfunções</t>
+  </si>
+  <si>
+    <t>18.542 - Controle Ambiental</t>
+  </si>
+  <si>
+    <t>25.752 - Energia Elétrica</t>
+  </si>
+  <si>
+    <t>04.124 - Controle Interno</t>
   </si>
 </sst>
 </file>
@@ -314,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -333,6 +372,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -686,6 +737,10 @@
       <c r="H7" s="6">
         <v>558322.82</v>
       </c>
+      <c r="I7" s="7">
+        <f>SUM(H19+H41)</f>
+        <v>7650050.68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1572,1002 +1627,1002 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1.92544559E7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="11">
+        <v>248971.91</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="11">
+        <v>248971.91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="11">
+        <v>3672439.87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="11">
+        <v>3667739.87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4700.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="11">
+        <v>90000.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="11">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="6">
-        <v>687723.63</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="G50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="11">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="6">
-        <v>366419.91</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="B51" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="11">
+        <v>427734.36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="B52" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="6">
-        <v>228800.41</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="G52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="11">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="B53" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="11">
+        <v>88834.83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="11">
+        <v>328899.53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="11">
+        <v>365862.51</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="11">
+        <v>365862.51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="11">
+        <v>3848507.91</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="11">
+        <v>3847169.97</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1337.94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="11">
+        <v>5264115.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="11">
+        <v>3890376.42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="6">
-        <v>92503.31</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="G62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="11">
+        <v>65406.3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="B63" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="11">
+        <v>60284.39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1070091.63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="6">
-        <v>29285.48</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="G65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="11">
+        <v>177956.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="B66" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="11">
+        <v>191267.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="11">
+        <v>191267.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="11">
+        <v>793678.4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="11">
+        <v>793678.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="11">
+        <v>461944.54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="11">
+        <v>461944.54</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="11">
+        <v>32774.56</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="11">
+        <v>32774.56</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="11">
+        <v>599556.83</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="11">
+        <v>506324.73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="6">
-        <v>29285.48</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="G76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="11">
+        <v>93232.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="6">
-        <v>1646619.42</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="B77" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1976.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="6">
-        <v>1218353.93</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="B78" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1976.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="6">
-        <v>313886.25</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="6">
-        <v>37583.14</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="B79" s="9">
+        <v>4318481.0</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="10">
+        <v>4739.0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="6">
-        <v>76796.1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="6">
-        <v>20043.95</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="6">
-        <v>20043.95</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6">
-        <v>840532.71</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="6">
-        <v>76063.86</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="6">
-        <v>656617.11</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="6">
-        <v>107851.74</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="6">
-        <v>3198577.86</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="6">
-        <v>1757128.04</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="6">
-        <v>750273.1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="6">
-        <v>73354.33</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="6">
-        <v>13417.04</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="6">
-        <v>57851.51</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="6">
-        <v>223106.54</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="6">
-        <v>323447.3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="6">
-        <v>3655956.67</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="6">
-        <v>2215222.35</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="6">
-        <v>7469.81</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="6">
-        <v>852882.97</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="6">
-        <v>253141.82</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="6">
-        <v>327239.72</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="6">
-        <v>288831.31</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="6">
-        <v>210163.21</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="6">
-        <v>78668.1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="6">
-        <v>1260472.94</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="6">
-        <v>221523.17</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="6">
-        <v>400060.62</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="4">
-        <v>3153301.0</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" s="5">
-        <v>3004.0</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="6">
-        <v>638889.15</v>
+      <c r="G79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="11">
+        <v>3400.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D80" s="5">
         <v>3004.0</v>
@@ -2576,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>15</v>
@@ -2587,13 +2642,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B81" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D81" s="5">
         <v>3004.0</v>
@@ -2602,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>15</v>
@@ -2613,13 +2668,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B82" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D82" s="5">
         <v>3004.0</v>
@@ -2639,13 +2694,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B83" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D83" s="5">
         <v>3004.0</v>
@@ -2654,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>15</v>
@@ -2665,13 +2720,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B84" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D84" s="5">
         <v>3004.0</v>
@@ -2691,13 +2746,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B85" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D85" s="5">
         <v>3004.0</v>
@@ -2717,13 +2772,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B86" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D86" s="5">
         <v>3004.0</v>
@@ -2743,13 +2798,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B87" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D87" s="5">
         <v>3004.0</v>
@@ -2769,13 +2824,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B88" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D88" s="5">
         <v>3004.0</v>
@@ -2795,13 +2850,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B89" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D89" s="5">
         <v>3004.0</v>
@@ -2810,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>15</v>
@@ -2821,13 +2876,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B90" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D90" s="5">
         <v>3004.0</v>
@@ -2836,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>15</v>
@@ -2847,13 +2902,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B91" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D91" s="5">
         <v>3004.0</v>
@@ -2862,7 +2917,7 @@
         <v>13</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>15</v>
@@ -2873,13 +2928,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B92" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D92" s="5">
         <v>3004.0</v>
@@ -2888,7 +2943,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>15</v>
@@ -2899,13 +2954,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B93" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D93" s="5">
         <v>3004.0</v>
@@ -2914,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>15</v>
@@ -2925,13 +2980,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B94" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D94" s="5">
         <v>3004.0</v>
@@ -2940,7 +2995,7 @@
         <v>13</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>15</v>
@@ -2951,13 +3006,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B95" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D95" s="5">
         <v>3004.0</v>
@@ -2966,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>15</v>
@@ -2977,13 +3032,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B96" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D96" s="5">
         <v>3004.0</v>
@@ -2992,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>15</v>
@@ -3003,13 +3058,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B97" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D97" s="5">
         <v>3004.0</v>
@@ -3018,7 +3073,7 @@
         <v>13</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>15</v>
@@ -3029,13 +3084,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B98" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D98" s="5">
         <v>3004.0</v>
@@ -3044,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>15</v>
@@ -3055,13 +3110,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B99" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D99" s="5">
         <v>3004.0</v>
@@ -3070,7 +3125,7 @@
         <v>13</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>15</v>
@@ -3081,13 +3136,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B100" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D100" s="5">
         <v>3004.0</v>
@@ -3096,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>15</v>
@@ -3107,13 +3162,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B101" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D101" s="5">
         <v>3004.0</v>
@@ -3133,13 +3188,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B102" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5">
         <v>3004.0</v>
@@ -3159,13 +3214,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B103" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D103" s="5">
         <v>3004.0</v>
@@ -3185,13 +3240,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B104" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D104" s="5">
         <v>3004.0</v>
@@ -3200,7 +3255,7 @@
         <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>15</v>
@@ -3211,13 +3266,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B105" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D105" s="5">
         <v>3004.0</v>
@@ -3226,7 +3281,7 @@
         <v>50</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>15</v>
@@ -3237,13 +3292,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B106" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D106" s="5">
         <v>3004.0</v>
@@ -3252,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>15</v>
@@ -3263,13 +3318,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B107" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D107" s="5">
         <v>3004.0</v>
@@ -3278,7 +3333,7 @@
         <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>15</v>
@@ -3289,13 +3344,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B108" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D108" s="5">
         <v>3004.0</v>
@@ -3315,13 +3370,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B109" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D109" s="5">
         <v>3004.0</v>
@@ -3341,13 +3396,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B110" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D110" s="5">
         <v>3004.0</v>
@@ -3367,13 +3422,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B111" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D111" s="5">
         <v>3004.0</v>
@@ -3382,7 +3437,7 @@
         <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>15</v>
@@ -3393,13 +3448,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B112" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D112" s="5">
         <v>3004.0</v>
@@ -3408,7 +3463,7 @@
         <v>50</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>15</v>
@@ -3419,13 +3474,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B113" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D113" s="5">
         <v>3004.0</v>
@@ -3445,13 +3500,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B114" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D114" s="5">
         <v>3004.0</v>
@@ -3471,13 +3526,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B115" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D115" s="5">
         <v>3004.0</v>
@@ -3497,13 +3552,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B116" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D116" s="5">
         <v>3004.0</v>
@@ -3523,13 +3578,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B117" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D117" s="5">
         <v>3004.0</v>
@@ -3549,13 +3604,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B118" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D118" s="5">
         <v>3004.0</v>
@@ -3564,7 +3619,7 @@
         <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>15</v>
@@ -3575,13 +3630,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B119" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D119" s="5">
         <v>3004.0</v>
@@ -3601,13 +3656,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B120" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D120" s="5">
         <v>3004.0</v>
@@ -3627,13 +3682,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B121" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D121" s="5">
         <v>3004.0</v>
@@ -3653,13 +3708,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B122" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D122" s="5">
         <v>3004.0</v>
@@ -3668,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>15</v>
@@ -3679,13 +3734,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B123" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D123" s="5">
         <v>3004.0</v>
@@ -3705,13 +3760,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B124" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D124" s="5">
         <v>3004.0</v>
@@ -3731,13 +3786,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B125" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D125" s="5">
         <v>3004.0</v>
@@ -3746,7 +3801,7 @@
         <v>50</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>15</v>
@@ -3757,13 +3812,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B126" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D126" s="5">
         <v>3004.0</v>
@@ -3772,7 +3827,7 @@
         <v>50</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>15</v>
@@ -3783,13 +3838,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B127" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D127" s="5">
         <v>3004.0</v>
@@ -3809,13 +3864,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B128" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D128" s="5">
         <v>3004.0</v>
@@ -3835,13 +3890,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B129" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D129" s="5">
         <v>3004.0</v>
@@ -3861,13 +3916,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B130" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D130" s="5">
         <v>3004.0</v>
@@ -3887,13 +3942,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B131" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D131" s="5">
         <v>3004.0</v>
@@ -3902,7 +3957,7 @@
         <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>15</v>
@@ -3913,13 +3968,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D132" s="5">
         <v>3004.0</v>
@@ -3928,7 +3983,7 @@
         <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>15</v>
@@ -3939,13 +3994,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B133" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D133" s="5">
         <v>3004.0</v>
@@ -3965,13 +4020,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B134" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D134" s="5">
         <v>3004.0</v>
@@ -3991,13 +4046,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D135" s="5">
         <v>3004.0</v>
@@ -4006,7 +4061,7 @@
         <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>15</v>
@@ -4017,13 +4072,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B136" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D136" s="5">
         <v>3004.0</v>
@@ -4043,13 +4098,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B137" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D137" s="5">
         <v>3004.0</v>
@@ -4069,13 +4124,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B138" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D138" s="5">
         <v>3004.0</v>
@@ -4095,13 +4150,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B139" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D139" s="5">
         <v>3004.0</v>
@@ -4110,7 +4165,7 @@
         <v>50</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>15</v>
@@ -4121,13 +4176,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B140" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D140" s="5">
         <v>3004.0</v>
@@ -4136,7 +4191,7 @@
         <v>50</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>15</v>
@@ -4147,13 +4202,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B141" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D141" s="5">
         <v>3004.0</v>
@@ -4162,7 +4217,7 @@
         <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>15</v>
@@ -4173,13 +4228,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B142" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D142" s="5">
         <v>3004.0</v>
@@ -4199,13 +4254,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B143" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D143" s="5">
         <v>3004.0</v>
@@ -4214,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>15</v>
@@ -4225,13 +4280,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B144" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D144" s="5">
         <v>3004.0</v>
@@ -4251,13 +4306,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B145" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D145" s="5">
         <v>3004.0</v>
@@ -4277,13 +4332,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B146" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D146" s="5">
         <v>3004.0</v>
@@ -4303,13 +4358,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B147" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D147" s="5">
         <v>3004.0</v>
@@ -4329,13 +4384,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B148" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D148" s="5">
         <v>3004.0</v>
@@ -4355,13 +4410,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B149" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D149" s="5">
         <v>3004.0</v>
@@ -4370,7 +4425,7 @@
         <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>15</v>
@@ -4381,13 +4436,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B150" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D150" s="5">
         <v>3004.0</v>
@@ -4396,7 +4451,7 @@
         <v>50</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>15</v>
@@ -4407,13 +4462,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B151" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D151" s="5">
         <v>3004.0</v>
@@ -4422,7 +4477,7 @@
         <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>15</v>
@@ -4433,13 +4488,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B152" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D152" s="5">
         <v>3004.0</v>
@@ -4448,7 +4503,7 @@
         <v>50</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>15</v>
@@ -4459,13 +4514,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B153" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D153" s="5">
         <v>3004.0</v>
@@ -4474,7 +4529,7 @@
         <v>50</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>15</v>
@@ -4485,13 +4540,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B154" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D154" s="5">
         <v>3004.0</v>
@@ -4500,7 +4555,7 @@
         <v>50</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>15</v>
@@ -4511,13 +4566,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B155" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D155" s="5">
         <v>3004.0</v>
@@ -4526,7 +4581,7 @@
         <v>50</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>15</v>
@@ -4537,13 +4592,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B156" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D156" s="5">
         <v>3004.0</v>
@@ -4552,7 +4607,7 @@
         <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>15</v>
@@ -4563,13 +4618,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B157" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D157" s="5">
         <v>3004.0</v>
@@ -4578,7 +4633,7 @@
         <v>50</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>15</v>
@@ -4589,13 +4644,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B158" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D158" s="5">
         <v>3004.0</v>
@@ -4604,7 +4659,7 @@
         <v>50</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>15</v>
@@ -4615,13 +4670,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B159" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D159" s="5">
         <v>3004.0</v>
@@ -4630,7 +4685,7 @@
         <v>50</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>15</v>
@@ -4641,13 +4696,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B160" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D160" s="5">
         <v>3004.0</v>
@@ -4656,7 +4711,7 @@
         <v>50</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>15</v>
@@ -4667,19 +4722,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B161" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D161" s="5">
         <v>3004.0</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>14</v>
@@ -4693,19 +4748,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B162" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D162" s="5">
         <v>3004.0</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -4719,19 +4774,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B163" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D163" s="5">
         <v>3004.0</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>17</v>
@@ -4745,22 +4800,22 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B164" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D164" s="5">
         <v>3004.0</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>15</v>
@@ -4771,22 +4826,22 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B165" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D165" s="5">
         <v>3004.0</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>15</v>
@@ -4797,22 +4852,22 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B166" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D166" s="5">
         <v>3004.0</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>15</v>
@@ -4823,22 +4878,22 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B167" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D167" s="5">
         <v>3004.0</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>15</v>
@@ -4849,19 +4904,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B168" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D168" s="5">
         <v>3004.0</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>18</v>
@@ -4875,19 +4930,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B169" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D169" s="5">
         <v>3004.0</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>19</v>
@@ -4901,19 +4956,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B170" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D170" s="5">
         <v>3004.0</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>20</v>
@@ -4927,22 +4982,22 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B171" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D171" s="5">
         <v>3004.0</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>15</v>
@@ -4953,22 +5008,22 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B172" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D172" s="5">
         <v>3004.0</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>15</v>
@@ -4979,19 +5034,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B173" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D173" s="5">
         <v>3004.0</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>21</v>
@@ -5005,19 +5060,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B174" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D174" s="5">
         <v>3004.0</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>22</v>
@@ -5031,19 +5086,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B175" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D175" s="5">
         <v>3004.0</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>23</v>
@@ -5057,19 +5112,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B176" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D176" s="5">
         <v>3004.0</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>24</v>
@@ -5083,19 +5138,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B177" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D177" s="5">
         <v>3004.0</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>25</v>
@@ -5109,22 +5164,22 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B178" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D178" s="5">
         <v>3004.0</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>15</v>
@@ -5135,19 +5190,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B179" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D179" s="5">
         <v>3004.0</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>28</v>
@@ -5161,19 +5216,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B180" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D180" s="5">
         <v>3004.0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>29</v>
@@ -5187,19 +5242,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B181" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D181" s="5">
         <v>3004.0</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>30</v>
@@ -5213,22 +5268,22 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B182" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D182" s="5">
         <v>3004.0</v>
       </c>
       <c r="E182" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>15</v>
@@ -5239,19 +5294,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B183" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D183" s="5">
         <v>3004.0</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>31</v>
@@ -5265,19 +5320,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B184" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D184" s="5">
         <v>3004.0</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>32</v>
@@ -5291,22 +5346,22 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B185" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D185" s="5">
         <v>3004.0</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>15</v>
@@ -5317,22 +5372,22 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B186" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D186" s="5">
         <v>3004.0</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>15</v>
@@ -5343,19 +5398,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B187" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D187" s="5">
         <v>3004.0</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>33</v>
@@ -5369,19 +5424,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B188" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D188" s="5">
         <v>3004.0</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>34</v>
@@ -5395,19 +5450,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B189" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D189" s="5">
         <v>3004.0</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>35</v>
@@ -5421,19 +5476,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B190" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D190" s="5">
         <v>3004.0</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>36</v>
@@ -5447,22 +5502,22 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B191" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D191" s="5">
         <v>3004.0</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>15</v>
@@ -5473,22 +5528,22 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B192" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D192" s="5">
         <v>3004.0</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>15</v>
@@ -5499,19 +5554,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B193" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D193" s="5">
         <v>3004.0</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>38</v>
@@ -5525,19 +5580,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B194" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D194" s="5">
         <v>3004.0</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>39</v>
@@ -5551,22 +5606,22 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B195" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D195" s="5">
         <v>3004.0</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>15</v>
@@ -5577,19 +5632,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B196" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D196" s="5">
         <v>3004.0</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>40</v>
@@ -5603,19 +5658,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B197" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D197" s="5">
         <v>3004.0</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>41</v>
@@ -5629,19 +5684,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B198" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D198" s="5">
         <v>3004.0</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>42</v>
@@ -5655,22 +5710,22 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B199" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D199" s="5">
         <v>3004.0</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>15</v>
@@ -5681,22 +5736,22 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B200" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D200" s="5">
         <v>3004.0</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>15</v>
@@ -5707,22 +5762,22 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B201" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D201" s="5">
         <v>3004.0</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>15</v>
@@ -5733,19 +5788,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B202" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D202" s="5">
         <v>3004.0</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>43</v>
@@ -5759,22 +5814,22 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B203" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D203" s="5">
         <v>3004.0</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>15</v>
@@ -5785,19 +5840,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B204" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D204" s="5">
         <v>3004.0</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>44</v>
@@ -5811,19 +5866,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B205" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D205" s="5">
         <v>3004.0</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>45</v>
@@ -5837,19 +5892,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B206" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D206" s="5">
         <v>3004.0</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>46</v>
@@ -5863,19 +5918,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B207" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D207" s="5">
         <v>3004.0</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>47</v>
@@ -5889,19 +5944,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B208" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D208" s="5">
         <v>3004.0</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>48</v>
@@ -5915,22 +5970,22 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B209" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D209" s="5">
         <v>3004.0</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>15</v>
@@ -5941,22 +5996,22 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B210" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D210" s="5">
         <v>3004.0</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>15</v>
@@ -5967,22 +6022,22 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B211" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D211" s="5">
         <v>3004.0</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>15</v>
@@ -5993,22 +6048,22 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B212" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D212" s="5">
         <v>3004.0</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>15</v>
@@ -6019,22 +6074,22 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B213" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D213" s="5">
         <v>3004.0</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>15</v>
@@ -6045,22 +6100,22 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B214" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D214" s="5">
         <v>3004.0</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>15</v>
@@ -6071,22 +6126,22 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B215" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D215" s="5">
         <v>3004.0</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>15</v>
@@ -6097,22 +6152,22 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B216" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D216" s="5">
         <v>3004.0</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>15</v>
@@ -6123,22 +6178,22 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B217" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D217" s="5">
         <v>3004.0</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>15</v>
@@ -6149,22 +6204,22 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B218" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D218" s="5">
         <v>3004.0</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>15</v>
@@ -6175,22 +6230,22 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B219" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D219" s="5">
         <v>3004.0</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>15</v>
@@ -6201,22 +6256,22 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B220" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D220" s="5">
         <v>3004.0</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>15</v>
@@ -6227,19 +6282,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B221" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D221" s="5">
         <v>3004.0</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>14</v>
@@ -6253,19 +6308,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B222" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D222" s="5">
         <v>3004.0</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>28</v>
@@ -6279,19 +6334,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B223" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D223" s="5">
         <v>3004.0</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>29</v>
@@ -6305,19 +6360,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B224" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D224" s="5">
         <v>3004.0</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>30</v>
@@ -6331,22 +6386,22 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B225" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D225" s="5">
         <v>3004.0</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>15</v>
@@ -6357,22 +6412,22 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B226" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D226" s="5">
         <v>3004.0</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F226" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>15</v>
@@ -6383,19 +6438,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B227" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D227" s="5">
         <v>3004.0</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>33</v>
@@ -6409,19 +6464,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B228" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D228" s="5">
         <v>3004.0</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>34</v>
@@ -6435,19 +6490,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B229" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D229" s="5">
         <v>3004.0</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>36</v>
@@ -6461,22 +6516,22 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B230" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D230" s="5">
         <v>3004.0</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>15</v>
@@ -6487,19 +6542,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B231" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D231" s="5">
         <v>3004.0</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>38</v>
@@ -6513,19 +6568,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B232" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D232" s="5">
         <v>3004.0</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>39</v>
@@ -6539,19 +6594,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B233" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D233" s="5">
         <v>3004.0</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>40</v>
@@ -6565,19 +6620,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B234" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D234" s="5">
         <v>3004.0</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>41</v>
@@ -6591,19 +6646,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B235" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D235" s="5">
         <v>3004.0</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>42</v>
@@ -6617,22 +6672,22 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B236" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D236" s="5">
         <v>3004.0</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>15</v>
@@ -6643,19 +6698,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B237" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D237" s="5">
         <v>3004.0</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>43</v>
@@ -6669,19 +6724,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B238" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D238" s="5">
         <v>3004.0</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>44</v>
@@ -6695,22 +6750,22 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B239" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D239" s="5">
         <v>3004.0</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>15</v>
@@ -6721,22 +6776,22 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B240" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D240" s="5">
         <v>3004.0</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>15</v>
@@ -6747,19 +6802,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B241" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D241" s="5">
         <v>3004.0</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>14</v>
@@ -6773,19 +6828,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B242" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D242" s="5">
         <v>3004.0</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>18</v>
@@ -6799,19 +6854,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B243" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D243" s="5">
         <v>3004.0</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>19</v>
@@ -6825,19 +6880,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B244" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D244" s="5">
         <v>3004.0</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>23</v>
@@ -6851,22 +6906,22 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B245" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D245" s="5">
         <v>3004.0</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>15</v>
@@ -6877,19 +6932,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B246" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D246" s="5">
         <v>3004.0</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>28</v>
@@ -6903,19 +6958,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B247" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D247" s="5">
         <v>3004.0</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>29</v>
@@ -6929,19 +6984,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B248" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D248" s="5">
         <v>3004.0</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>30</v>
@@ -6955,22 +7010,22 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B249" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D249" s="5">
         <v>3004.0</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>15</v>
@@ -6981,22 +7036,22 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B250" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D250" s="5">
         <v>3004.0</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>15</v>
@@ -7007,19 +7062,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B251" s="4">
         <v>3153301.0</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D251" s="5">
         <v>3004.0</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>33</v>
@@ -7029,6 +7084,1254 @@
       </c>
       <c r="H251" s="6">
         <v>8038.99</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B252" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" s="6">
+        <v>10335.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B253" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253" s="6">
+        <v>1023989.91</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B254" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="6">
+        <v>9747250.37</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B255" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="6">
+        <v>9630201.93</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="6">
+        <v>102490.08</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="6">
+        <v>14558.36</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B258" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="6">
+        <v>9920683.93</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B259" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259" s="6">
+        <v>7004951.66</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B260" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="6">
+        <v>2586751.26</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B261" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H261" s="6">
+        <v>4485.61</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B262" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="6">
+        <v>324495.4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B263" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H263" s="6">
+        <v>30392.11</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B264" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="6">
+        <v>30392.11</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B265" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H265" s="6">
+        <v>140965.33</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B266" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H266" s="6">
+        <v>140965.33</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B267" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H267" s="6">
+        <v>8225810.55</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B268" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" s="6">
+        <v>99231.91</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B269" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H269" s="6">
+        <v>8126578.64</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B270" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H270" s="6">
+        <v>87949.66</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B271" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271" s="6">
+        <v>87949.66</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B272" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1285423.68</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B273" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H273" s="6">
+        <v>1285423.68</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B274" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H274" s="6">
+        <v>788420.58</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B275" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" s="6">
+        <v>788420.58</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B276" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H276" s="6">
+        <v>110839.49</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B277" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H277" s="6">
+        <v>110839.49</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B278" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H278" s="6">
+        <v>129053.61</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B279" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H279" s="6">
+        <v>129053.61</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B280" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H280" s="6">
+        <v>3.447491185E7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B281" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H281" s="6">
+        <v>821025.93</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B282" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H282" s="6">
+        <v>821025.93</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B283" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283" s="6">
+        <v>5295261.46</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B284" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H284" s="6">
+        <v>5008615.85</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B285" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H285" s="6">
+        <v>265145.61</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B286" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H286" s="6">
+        <v>21500.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B287" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H287" s="6">
+        <v>34393.04</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B288" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" s="6">
+        <v>34333.04</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B289" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H289" s="6">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B290" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290" s="6">
+        <v>1009630.54</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B291" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H291" s="6">
+        <v>9084.34</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B292" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H292" s="6">
+        <v>10335.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B293" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="6">
+        <v>990211.2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B294" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H294" s="6">
+        <v>9025184.93</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B295" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H295" s="6">
+        <v>8908136.49</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B296" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H296" s="6">
+        <v>102490.08</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B297" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H297" s="6">
+        <v>14558.36</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B298" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" s="6">
+        <v>9909109.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B299" s="4">
+        <v>4321667.0</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="5">
+        <v>10989.0</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H299" s="6">
+        <v>6994470.33</v>
       </c>
     </row>
   </sheetData>
